--- a/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -550,7 +550,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J237-RegionOM-ROR/FHIR/JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
-    <t>regionSource</t>
+    <t>regionSource : JDV-J237-RegionOM-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.implicitRules</t>
@@ -676,7 +676,7 @@
     <t>Extension créée dans le cadre du ROR qui correspond au statut du professionnel lorsqu'il exerce dans le cadre de l'offre décrite.</t>
   </si>
   <si>
-    <t>modeExerciceOffre</t>
+    <t>modeExerciceOffre : JDV-J217-ModeExercice-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.extension:ror-practitionerrole-name</t>
@@ -713,7 +713,7 @@
     <t>exerciseTitle</t>
   </si>
   <si>
-    <t>civiliteExercice</t>
+    <t>civiliteExercice : JDV-J208-CiviliteExercice-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.extension:ror-practitionerrole-name.extension:exerciseTitle.id</t>
@@ -858,7 +858,7 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t>secteurConventionnement</t>
+    <t>secteurConventionnement : JDV-J218-CNAMAmeliSecteurConventionnement-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.extension:contracted.id</t>
@@ -1171,7 +1171,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J209-TypeSavoirFaire-ROR/FHIR/JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.typeSavoirFaire</t>
+    <t>SavoirFaire.typeSavoirFaire : JDV-J209-TypeSavoirFaire-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specialty</t>
@@ -1186,7 +1186,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J210-SpecialiteOrdinale-ROR/FHIR/JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.specialite</t>
+    <t>SavoirFaire.specialite : JDV-J210-SpecialiteOrdinale-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:competence</t>
@@ -1201,7 +1201,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J232-Competence-ROR/FHIR/JDV-J232-Competence-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.competence</t>
+    <t>SavoirFaire.competence : JDV-J232-Competence-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:exclusiveCompetence</t>
@@ -1216,7 +1216,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J211-CompetenceExclusive-ROR/FHIR/JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.competenceExclusive</t>
+    <t>SavoirFaire.competenceExclusive : JDV-J211-CompetenceExclusive-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificOrientation</t>
@@ -1231,7 +1231,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J212-OrientationParticuliere-ROR/FHIR/JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.orientationParticuliere</t>
+    <t>SavoirFaire.orientationParticuliere : JDV-J212-OrientationParticuliere-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:expertiseCapacity</t>
@@ -1246,7 +1246,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J213-CapaciteSavoirFaire-ROR/FHIR/JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.capacite</t>
+    <t>SavoirFaire.capacite : JDV-J213-CapaciteSavoirFaire-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:qualificationPAC</t>
@@ -1261,7 +1261,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J214-QualificationPAC-ROR/FHIR/JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.qualificationPAC</t>
+    <t>SavoirFaire.qualificationPAC : JDV-J214-QualificationPAC-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:nonQualifyingDESC</t>
@@ -1276,7 +1276,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J215-DESCnonQualifiant-ROR/FHIR/JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.DESCNonQualifiant</t>
+    <t>SavoirFaire.DESCNonQualifiant : JDV-J215-DESCnonQualifiant-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:supplementaryExerciseRight</t>
@@ -1291,7 +1291,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J216-DroitExerciceCompl-ROR/FHIR/JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
-    <t>SavoirFaire.droitExerciceComplémentaire</t>
+    <t>SavoirFaire.droitExerciceComplémentaire : JDV-J216-DroitExerciceCompl-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.specialty:specificCompetence</t>
@@ -1306,7 +1306,7 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J33-CompetenceSpecifique-ROR/FHIR/JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
-    <t>competenceSpecifique</t>
+    <t>competenceSpecifique : JDV-J33-CompetenceSpecifique-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.location</t>
@@ -1404,7 +1404,7 @@
     <t>Extension créée dans le cadre du ROR spécifiant le canal ou la manière dont s'établit la communication</t>
   </si>
   <si>
-    <t>canal</t>
+    <t>canal : JDV-J225-CanalCommunication-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.extension:ror-telecom-usage</t>
@@ -1442,7 +1442,7 @@
     <t>Extension créée dans le cadre du ROR qui permet de définir le niveau de restriction de l'accès aux attributs de la classe Télécommunication.</t>
   </si>
   <si>
-    <t>niveauConfidentialite</t>
+    <t>niveauConfidentialite : JDV-J222-NiveauConfidentialite-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.telecom.system</t>
@@ -1623,7 +1623,7 @@
     <t>Extension créée dans le cadre du ROR pour apporter un contexte à la plage horaire définie par la suite. Un planning peut être constitué de plusieurs plages horaires du même type ou de type différent.</t>
   </si>
   <si>
-    <t>typePlageHoraire</t>
+    <t>typePlageHoraire : JDV-J41-TypeHoraire-ROR</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.extension:ror-available-time-effective-opening-closing-date</t>
@@ -2254,8 +2254,8 @@
     <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="65.40234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="67.484375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="72.45703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="75.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
